--- a/Cases_in_progress.xlsx
+++ b/Cases_in_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilial\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyman\Documents\work\TeraDrive\TeraDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC0FBCB-EC17-4259-A90B-051503B05E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D862B87-45D2-4CF4-AFB0-3741FD6C40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="945" windowWidth="31485" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases in progress - a" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="162">
   <si>
     <t>Cases in progress - Alex</t>
   </si>
@@ -674,7 +674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1006,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1416,47 +1416,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>5074345859</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>5189709998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>5237719575</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>5180456298</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>131</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>5268678369</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>5292252117</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>5268604103</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>5292130883</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>5314641786</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>5303227658</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>5270601088</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>5314841553</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>5324394178</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>5324452458</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2712,21 +2712,21 @@
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1283.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1283.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>5074345859</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>5074345859</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>5180456298</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5189709998</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5237719575</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5268604103</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5268678369</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5292130883</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5292252117</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5292252117</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5303227658</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>5303227658</v>
       </c>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5314641786</v>
       </c>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>5314641786</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>5314841553</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>5314841553</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>5324394178</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5324394178</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5324452458</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>5324452458</v>
       </c>
